--- a/output/Financial Statement AAPL/Compiled Income Statement-AAPL.xlsx
+++ b/output/Financial Statement AAPL/Compiled Income Statement-AAPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/Financial-Statements/output/Financial Statement AAPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD13B4AA-DA08-B646-8FE6-9787366981F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B5B655-4E17-564D-A89B-0970BE5247CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="1060" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compiled Statement" sheetId="1" r:id="rId1"/>
@@ -561,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:AO41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK33" sqref="AK33:AX43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2292,7 +2292,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>19604</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>5589</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2429,121 +2429,85 @@
         <v>2332</v>
       </c>
       <c r="D37">
-        <v>5319</v>
+        <v>2354</v>
       </c>
       <c r="E37">
-        <v>2354</v>
+        <v>2484</v>
       </c>
       <c r="F37">
-        <v>7673</v>
+        <v>10157</v>
       </c>
       <c r="G37">
-        <v>2484</v>
+        <v>2745</v>
       </c>
       <c r="H37">
-        <v>10157</v>
+        <v>2739</v>
       </c>
       <c r="I37">
-        <v>2745</v>
+        <v>2665</v>
       </c>
       <c r="J37">
-        <v>2739</v>
+        <v>2754</v>
       </c>
       <c r="K37">
-        <v>5484</v>
+        <v>10903</v>
       </c>
       <c r="L37">
-        <v>2665</v>
+        <v>3395</v>
       </c>
       <c r="M37">
-        <v>8149</v>
+        <v>3040</v>
       </c>
       <c r="N37">
-        <v>2754</v>
+        <v>2933</v>
       </c>
       <c r="O37">
-        <v>10903</v>
+        <v>3179</v>
       </c>
       <c r="P37">
-        <v>3395</v>
+        <v>12547</v>
       </c>
       <c r="Q37">
-        <v>3040</v>
+        <v>2816</v>
       </c>
       <c r="R37">
-        <v>6435</v>
+        <v>2786</v>
       </c>
       <c r="S37">
-        <v>2933</v>
+        <v>2752</v>
       </c>
       <c r="T37">
-        <v>9368</v>
+        <v>2702</v>
       </c>
       <c r="U37">
-        <v>3179</v>
+        <v>11056</v>
       </c>
       <c r="V37">
-        <v>12547</v>
+        <v>2666</v>
       </c>
       <c r="W37">
-        <v>2816</v>
+        <v>2797</v>
       </c>
       <c r="X37">
-        <v>2786</v>
+        <v>2832</v>
       </c>
       <c r="Y37">
-        <v>5602</v>
+        <v>2989</v>
       </c>
       <c r="Z37">
-        <v>2752</v>
+        <v>11284</v>
       </c>
       <c r="AA37">
-        <v>8354</v>
+        <v>2697</v>
       </c>
       <c r="AB37">
-        <v>2702</v>
+        <v>2737</v>
       </c>
       <c r="AC37">
-        <v>11056</v>
-      </c>
-      <c r="AD37">
-        <v>2666</v>
-      </c>
-      <c r="AE37">
-        <v>2797</v>
-      </c>
-      <c r="AF37">
-        <v>5463</v>
-      </c>
-      <c r="AG37">
-        <v>2832</v>
-      </c>
-      <c r="AH37">
-        <v>8295</v>
-      </c>
-      <c r="AI37">
-        <v>2989</v>
-      </c>
-      <c r="AJ37">
-        <v>11284</v>
-      </c>
-      <c r="AK37">
-        <v>2697</v>
-      </c>
-      <c r="AL37">
-        <v>2737</v>
-      </c>
-      <c r="AM37">
-        <v>5434</v>
-      </c>
-      <c r="AN37">
         <v>2805</v>
       </c>
-      <c r="AO37">
-        <v>8239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -2554,121 +2518,85 @@
         <v>3368</v>
       </c>
       <c r="D38">
-        <v>6878</v>
+        <v>2874</v>
       </c>
       <c r="E38">
-        <v>2874</v>
+        <v>1839</v>
       </c>
       <c r="F38">
-        <v>9752</v>
+        <v>11591</v>
       </c>
       <c r="G38">
-        <v>1839</v>
+        <v>3551</v>
       </c>
       <c r="H38">
-        <v>11591</v>
+        <v>2789</v>
       </c>
       <c r="I38">
-        <v>3551</v>
+        <v>2479</v>
       </c>
       <c r="J38">
-        <v>2789</v>
+        <v>1598</v>
       </c>
       <c r="K38">
-        <v>6340</v>
+        <v>10417</v>
       </c>
       <c r="L38">
-        <v>2479</v>
+        <v>4916</v>
       </c>
       <c r="M38">
-        <v>8819</v>
+        <v>4581</v>
       </c>
       <c r="N38">
-        <v>1598</v>
+        <v>2298</v>
       </c>
       <c r="O38">
-        <v>10417</v>
+        <v>3468</v>
       </c>
       <c r="P38">
-        <v>4916</v>
+        <v>15263</v>
       </c>
       <c r="Q38">
-        <v>4581</v>
+        <v>4393</v>
       </c>
       <c r="R38">
-        <v>9497</v>
+        <v>3112</v>
       </c>
       <c r="S38">
-        <v>2298</v>
+        <v>905</v>
       </c>
       <c r="T38">
-        <v>11795</v>
+        <v>1091</v>
       </c>
       <c r="U38">
-        <v>3468</v>
+        <v>9501</v>
       </c>
       <c r="V38">
-        <v>15263</v>
+        <v>1787</v>
       </c>
       <c r="W38">
-        <v>4393</v>
+        <v>8489</v>
       </c>
       <c r="X38">
-        <v>3112</v>
+        <v>8260</v>
       </c>
       <c r="Y38">
-        <v>7505</v>
+        <v>6849</v>
       </c>
       <c r="Z38">
-        <v>905</v>
+        <v>25385</v>
       </c>
       <c r="AA38">
-        <v>8410</v>
+        <v>5235</v>
       </c>
       <c r="AB38">
-        <v>1091</v>
+        <v>4066</v>
       </c>
       <c r="AC38">
-        <v>9501</v>
-      </c>
-      <c r="AD38">
-        <v>1787</v>
-      </c>
-      <c r="AE38">
-        <v>8489</v>
-      </c>
-      <c r="AF38">
-        <v>10276</v>
-      </c>
-      <c r="AG38">
-        <v>8260</v>
-      </c>
-      <c r="AH38">
-        <v>18536</v>
-      </c>
-      <c r="AI38">
-        <v>6849</v>
-      </c>
-      <c r="AJ38">
-        <v>25385</v>
-      </c>
-      <c r="AK38">
-        <v>5235</v>
-      </c>
-      <c r="AL38">
-        <v>4066</v>
-      </c>
-      <c r="AM38">
-        <v>9301</v>
-      </c>
-      <c r="AN38">
         <v>2950</v>
       </c>
-      <c r="AO38">
-        <v>12251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -2679,121 +2607,85 @@
         <v>510</v>
       </c>
       <c r="D39">
-        <v>1007</v>
+        <v>449</v>
       </c>
       <c r="E39">
-        <v>449</v>
+        <v>636</v>
       </c>
       <c r="F39">
-        <v>1456</v>
+        <v>2092</v>
       </c>
       <c r="G39">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="H39">
-        <v>2092</v>
+        <v>733</v>
       </c>
       <c r="I39">
-        <v>623</v>
+        <v>764</v>
       </c>
       <c r="J39">
-        <v>733</v>
+        <v>902</v>
       </c>
       <c r="K39">
-        <v>1356</v>
+        <v>3022</v>
       </c>
       <c r="L39">
-        <v>764</v>
+        <v>836</v>
       </c>
       <c r="M39">
-        <v>2120</v>
+        <v>926</v>
       </c>
       <c r="N39">
-        <v>902</v>
+        <v>801</v>
       </c>
       <c r="O39">
-        <v>3022</v>
+        <v>860</v>
       </c>
       <c r="P39">
-        <v>836</v>
+        <v>3423</v>
       </c>
       <c r="Q39">
-        <v>926</v>
+        <v>771</v>
       </c>
       <c r="R39">
-        <v>1762</v>
+        <v>918</v>
       </c>
       <c r="S39">
-        <v>801</v>
+        <v>586</v>
       </c>
       <c r="T39">
-        <v>2563</v>
+        <v>727</v>
       </c>
       <c r="U39">
-        <v>860</v>
+        <v>3002</v>
       </c>
       <c r="V39">
-        <v>3423</v>
+        <v>619</v>
       </c>
       <c r="W39">
-        <v>771</v>
+        <v>708</v>
       </c>
       <c r="X39">
-        <v>918</v>
+        <v>543</v>
       </c>
       <c r="Y39">
-        <v>1689</v>
+        <v>817</v>
       </c>
       <c r="Z39">
-        <v>586</v>
+        <v>2687</v>
       </c>
       <c r="AA39">
-        <v>2275</v>
+        <v>531</v>
       </c>
       <c r="AB39">
-        <v>727</v>
+        <v>875</v>
       </c>
       <c r="AC39">
-        <v>3002</v>
-      </c>
-      <c r="AD39">
-        <v>619</v>
-      </c>
-      <c r="AE39">
-        <v>708</v>
-      </c>
-      <c r="AF39">
-        <v>1327</v>
-      </c>
-      <c r="AG39">
-        <v>543</v>
-      </c>
-      <c r="AH39">
-        <v>1870</v>
-      </c>
-      <c r="AI39">
-        <v>817</v>
-      </c>
-      <c r="AJ39">
-        <v>2687</v>
-      </c>
-      <c r="AK39">
-        <v>531</v>
-      </c>
-      <c r="AL39">
-        <v>875</v>
-      </c>
-      <c r="AM39">
-        <v>1406</v>
-      </c>
-      <c r="AN39">
         <v>504</v>
       </c>
-      <c r="AO39">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2807,155 +2699,107 @@
       </c>
       <c r="D41">
         <f t="shared" si="17"/>
-        <v>21921</v>
+        <v>14394</v>
       </c>
       <c r="E41">
         <f t="shared" si="17"/>
-        <v>45311</v>
+        <v>44593</v>
       </c>
       <c r="F41">
         <f t="shared" si="17"/>
-        <v>67232</v>
+        <v>72191</v>
       </c>
       <c r="G41">
         <f t="shared" si="17"/>
-        <v>25024</v>
+        <v>26984</v>
       </c>
       <c r="H41">
         <f t="shared" si="17"/>
-        <v>37662</v>
+        <v>20083</v>
       </c>
       <c r="I41">
         <f t="shared" si="17"/>
-        <v>18438</v>
+        <v>17427</v>
       </c>
       <c r="J41">
         <f t="shared" si="17"/>
-        <v>54273</v>
+        <v>53266</v>
       </c>
       <c r="K41">
         <f t="shared" si="17"/>
-        <v>72711</v>
+        <v>83873</v>
       </c>
       <c r="L41">
         <f t="shared" si="17"/>
-        <v>25873</v>
+        <v>29112</v>
       </c>
       <c r="M41">
         <f t="shared" si="17"/>
-        <v>30649</v>
+        <v>20108</v>
       </c>
       <c r="N41">
         <f t="shared" si="17"/>
-        <v>15298</v>
+        <v>16076</v>
       </c>
       <c r="O41">
         <f t="shared" si="17"/>
-        <v>69554</v>
+        <v>52719</v>
       </c>
       <c r="P41">
         <f t="shared" si="17"/>
-        <v>64403</v>
+        <v>86489</v>
       </c>
       <c r="Q41">
         <f t="shared" si="17"/>
-        <v>30783</v>
+        <v>30216</v>
       </c>
       <c r="R41">
         <f t="shared" si="17"/>
-        <v>28943</v>
+        <v>18065</v>
       </c>
       <c r="S41">
         <f t="shared" si="17"/>
-        <v>17285</v>
+        <v>15496</v>
       </c>
       <c r="T41">
         <f t="shared" si="17"/>
-        <v>69884</v>
+        <v>50678</v>
       </c>
       <c r="U41">
         <f t="shared" si="17"/>
-        <v>64918</v>
+        <v>80970</v>
       </c>
       <c r="V41">
         <f t="shared" si="17"/>
-        <v>59988</v>
+        <v>33827</v>
       </c>
       <c r="W41">
         <f t="shared" si="17"/>
-        <v>31610</v>
+        <v>35624</v>
       </c>
       <c r="X41">
         <f t="shared" si="17"/>
-        <v>28560</v>
+        <v>33379</v>
       </c>
       <c r="Y41">
         <f t="shared" si="17"/>
-        <v>87732</v>
+        <v>83591</v>
       </c>
       <c r="Z41">
         <f t="shared" si="17"/>
-        <v>98923</v>
+        <v>134036</v>
       </c>
       <c r="AA41">
         <f t="shared" si="17"/>
-        <v>53669</v>
+        <v>43093</v>
       </c>
       <c r="AB41">
         <f t="shared" si="17"/>
-        <v>29530</v>
+        <v>32688</v>
       </c>
       <c r="AC41">
         <f t="shared" si="17"/>
-        <v>43001</v>
-      </c>
-      <c r="AD41">
-        <f t="shared" si="17"/>
-        <v>5072</v>
-      </c>
-      <c r="AE41">
-        <f t="shared" si="17"/>
-        <v>11994</v>
-      </c>
-      <c r="AF41">
-        <f t="shared" si="17"/>
-        <v>17066</v>
-      </c>
-      <c r="AG41">
-        <f t="shared" si="17"/>
-        <v>11635</v>
-      </c>
-      <c r="AH41">
-        <f t="shared" si="17"/>
-        <v>28701</v>
-      </c>
-      <c r="AI41">
-        <f t="shared" si="17"/>
-        <v>10655</v>
-      </c>
-      <c r="AJ41">
-        <f t="shared" si="17"/>
-        <v>39356</v>
-      </c>
-      <c r="AK41">
-        <f t="shared" si="17"/>
-        <v>8463</v>
-      </c>
-      <c r="AL41">
-        <f t="shared" si="17"/>
-        <v>7678</v>
-      </c>
-      <c r="AM41">
-        <f t="shared" si="17"/>
-        <v>16141</v>
-      </c>
-      <c r="AN41">
-        <f t="shared" si="17"/>
-        <v>6259</v>
-      </c>
-      <c r="AO41">
-        <f t="shared" si="17"/>
-        <v>22400</v>
+        <v>25701</v>
       </c>
     </row>
   </sheetData>

--- a/output/Financial Statement AAPL/Compiled Income Statement-AAPL.xlsx
+++ b/output/Financial Statement AAPL/Compiled Income Statement-AAPL.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/Financial-Statements/output/Financial Statement AAPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/Financial-Statements /output/Financial Statement AAPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B5B655-4E17-564D-A89B-0970BE5247CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925F8B93-6642-CB44-851A-E6B64385B402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1060" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12200" yWindow="500" windowWidth="23000" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compiled Statement" sheetId="1" r:id="rId1"/>
     <sheet name="Separately Compiled Statement" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="52">
   <si>
     <t>label</t>
   </si>
@@ -188,22 +189,16 @@
     <t>services</t>
   </si>
   <si>
-    <t>ebita (income before taxes, interest, depreciation amortization</t>
-  </si>
-  <si>
-    <t>depreciation and amortization</t>
-  </si>
-  <si>
-    <t>cash paid for income taxes, net</t>
-  </si>
-  <si>
-    <t>cash paid for interest</t>
+    <t>diluted earnings per share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,11 +249,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,15 +557,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK33" sqref="AK33:AX43"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="29" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
@@ -849,11 +856,11 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <f>B3-B4</f>
+        <f t="shared" ref="B5:AC5" si="0">B3-B4</f>
         <v>30176</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:V5" si="0">C3-C4</f>
+        <f t="shared" si="0"/>
         <v>20591</v>
       </c>
       <c r="D5">
@@ -933,31 +940,31 @@
         <v>44328</v>
       </c>
       <c r="W5">
-        <f>W3-W4</f>
+        <f t="shared" si="0"/>
         <v>38079</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X5" si="1">X3-X4</f>
+        <f t="shared" si="0"/>
         <v>35255</v>
       </c>
       <c r="Y5">
-        <f t="shared" ref="Y5" si="2">Y3-Y4</f>
+        <f t="shared" si="0"/>
         <v>117581</v>
       </c>
       <c r="Z5">
-        <f t="shared" ref="Z5" si="3">Z3-Z4</f>
+        <f t="shared" si="0"/>
         <v>152836</v>
       </c>
       <c r="AA5">
-        <f t="shared" ref="AA5" si="4">AA3-AA4</f>
+        <f t="shared" si="0"/>
         <v>54243</v>
       </c>
       <c r="AB5">
-        <f t="shared" ref="AB5" si="5">AB3-AB4</f>
+        <f t="shared" si="0"/>
         <v>42559</v>
       </c>
       <c r="AC5">
-        <f t="shared" ref="AC5" si="6">AC3-AC4</f>
+        <f t="shared" si="0"/>
         <v>35885</v>
       </c>
     </row>
@@ -1152,204 +1159,232 @@
         <v>37</v>
       </c>
       <c r="B11">
-        <f>B9+B10</f>
+        <f t="shared" ref="B11:AC11" si="1">B9+B10</f>
         <v>6817</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:V11" si="7">C9+C10</f>
+        <f t="shared" si="1"/>
         <v>6494</v>
       </c>
       <c r="D11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>6720</v>
       </c>
       <c r="E11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>20122</v>
       </c>
       <c r="F11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>26842</v>
       </c>
       <c r="G11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>7638</v>
       </c>
       <c r="H11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>7528</v>
       </c>
       <c r="I11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>7809</v>
       </c>
       <c r="J11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>23132</v>
       </c>
       <c r="K11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>30941</v>
       </c>
       <c r="L11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>8685</v>
       </c>
       <c r="M11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>8406</v>
       </c>
       <c r="N11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>8683</v>
       </c>
       <c r="O11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>25779</v>
       </c>
       <c r="P11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>34462</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>9648</v>
       </c>
       <c r="R11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>9517</v>
       </c>
       <c r="S11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>9589</v>
       </c>
       <c r="T11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>29079</v>
       </c>
       <c r="U11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>38668</v>
       </c>
       <c r="V11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>10794</v>
       </c>
       <c r="W11">
-        <f>W9+W10</f>
+        <f t="shared" si="1"/>
         <v>10576</v>
       </c>
       <c r="X11">
-        <f t="shared" ref="X11" si="8">X9+X10</f>
+        <f t="shared" si="1"/>
         <v>11129</v>
       </c>
       <c r="Y11">
-        <f t="shared" ref="Y11" si="9">Y9+Y10</f>
+        <f t="shared" si="1"/>
         <v>32758</v>
       </c>
       <c r="Z11">
-        <f t="shared" ref="Z11" si="10">Z9+Z10</f>
+        <f t="shared" si="1"/>
         <v>43887</v>
       </c>
       <c r="AA11">
-        <f t="shared" ref="AA11" si="11">AA9+AA10</f>
+        <f t="shared" si="1"/>
         <v>12755</v>
       </c>
       <c r="AB11">
-        <f t="shared" ref="AB11" si="12">AB9+AB10</f>
+        <f t="shared" si="1"/>
         <v>12580</v>
       </c>
       <c r="AC11">
-        <f t="shared" ref="AC11" si="13">AC9+AC10</f>
+        <f t="shared" si="1"/>
         <v>12809</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B14">
+      <c r="B13">
+        <f>B5-B11</f>
         <v>23359</v>
       </c>
-      <c r="C14">
+      <c r="C13">
+        <f>C5-C11</f>
         <v>14097</v>
       </c>
-      <c r="D14">
+      <c r="D13">
+        <f t="shared" ref="D13:AC13" si="2">D5-D11</f>
         <v>10768</v>
       </c>
-      <c r="E14">
+      <c r="E13">
+        <f t="shared" si="2"/>
         <v>50576</v>
       </c>
-      <c r="F14">
+      <c r="F13">
+        <f t="shared" si="2"/>
         <v>61344</v>
       </c>
-      <c r="G14">
+      <c r="G13">
+        <f t="shared" si="2"/>
         <v>26274</v>
       </c>
-      <c r="H14">
+      <c r="H13">
+        <f t="shared" si="2"/>
         <v>15894</v>
       </c>
-      <c r="I14">
+      <c r="I13">
+        <f t="shared" si="2"/>
         <v>12612</v>
       </c>
-      <c r="J14">
+      <c r="J13">
+        <f t="shared" si="2"/>
         <v>58286</v>
       </c>
-      <c r="K14">
+      <c r="K13">
+        <f t="shared" si="2"/>
         <v>70898</v>
       </c>
-      <c r="L14">
+      <c r="L13">
+        <f t="shared" si="2"/>
         <v>23346</v>
       </c>
-      <c r="M14">
+      <c r="M13">
+        <f t="shared" si="2"/>
         <v>13415</v>
       </c>
-      <c r="N14">
+      <c r="N13">
+        <f t="shared" si="2"/>
         <v>11544</v>
       </c>
-      <c r="O14">
+      <c r="O13">
+        <f t="shared" si="2"/>
         <v>52386</v>
       </c>
-      <c r="P14">
+      <c r="P13">
+        <f t="shared" si="2"/>
         <v>63930</v>
       </c>
-      <c r="Q14">
+      <c r="Q13">
+        <f t="shared" si="2"/>
         <v>25569</v>
       </c>
-      <c r="R14">
+      <c r="R13">
+        <f t="shared" si="2"/>
         <v>12853</v>
       </c>
-      <c r="S14">
+      <c r="S13">
+        <f t="shared" si="2"/>
         <v>13091</v>
       </c>
-      <c r="T14">
+      <c r="T13">
+        <f t="shared" si="2"/>
         <v>53197</v>
       </c>
-      <c r="U14">
+      <c r="U13">
+        <f t="shared" si="2"/>
         <v>66288</v>
       </c>
-      <c r="V14">
+      <c r="V13">
+        <f t="shared" si="2"/>
         <v>33534</v>
       </c>
-      <c r="W14">
+      <c r="W13">
+        <f t="shared" si="2"/>
         <v>27503</v>
       </c>
-      <c r="X14">
+      <c r="X13">
+        <f t="shared" si="2"/>
         <v>24126</v>
       </c>
-      <c r="Y14">
+      <c r="Y13">
+        <f t="shared" si="2"/>
         <v>84823</v>
       </c>
-      <c r="Z14">
+      <c r="Z13">
+        <f t="shared" si="2"/>
         <v>108949</v>
       </c>
-      <c r="AA14">
+      <c r="AA13">
+        <f t="shared" si="2"/>
         <v>41488</v>
       </c>
-      <c r="AB14">
+      <c r="AB13">
+        <f t="shared" si="2"/>
         <v>29979</v>
       </c>
-      <c r="AC14">
+      <c r="AC13">
+        <f t="shared" si="2"/>
         <v>23076</v>
       </c>
     </row>
@@ -1447,63 +1482,63 @@
         <v>40</v>
       </c>
       <c r="B16">
-        <f>B14+B15</f>
+        <f t="shared" ref="B16:P16" si="3">B13+B15</f>
         <v>24180</v>
       </c>
       <c r="C16">
-        <f>C14+C15</f>
+        <f t="shared" si="3"/>
         <v>14684</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:P16" si="14">D14+D15</f>
+        <f t="shared" si="3"/>
         <v>11308</v>
       </c>
       <c r="E16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>52781</v>
       </c>
       <c r="F16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>64089</v>
       </c>
       <c r="G16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>27030</v>
       </c>
       <c r="H16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>16168</v>
       </c>
       <c r="I16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>13284</v>
       </c>
       <c r="J16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>59619</v>
       </c>
       <c r="K16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>72903</v>
       </c>
       <c r="L16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>23906</v>
       </c>
       <c r="M16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>13793</v>
       </c>
       <c r="N16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>11911</v>
       </c>
       <c r="O16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>53826</v>
       </c>
       <c r="P16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>65737</v>
       </c>
       <c r="Q16">
@@ -1522,430 +1557,341 @@
         <v>67091</v>
       </c>
       <c r="V16">
-        <f>V14+V15</f>
+        <f t="shared" ref="V16:AC16" si="4">V13+V15</f>
         <v>33579</v>
       </c>
       <c r="W16">
-        <f t="shared" ref="W16:AB16" si="15">W14+W15</f>
+        <f t="shared" si="4"/>
         <v>28011</v>
       </c>
       <c r="X16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>24369</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>84838</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>109207</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>41241</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>30139</v>
       </c>
       <c r="AC16">
-        <f>AC14+AC15</f>
+        <f t="shared" si="4"/>
         <v>23066</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>6289</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>3655</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>2591</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>13147</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>15738</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>6965</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>2346</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>1765</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>11607</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>13372</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <v>3941</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>2232</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <v>1867</v>
       </c>
-      <c r="O18">
+      <c r="O19">
         <v>8614</v>
       </c>
-      <c r="P18">
+      <c r="P19">
         <v>10481</v>
       </c>
-      <c r="Q18">
+      <c r="Q19">
         <v>3682</v>
       </c>
-      <c r="R18">
+      <c r="R19">
         <v>1886</v>
       </c>
-      <c r="S18">
+      <c r="S19">
         <v>1884</v>
       </c>
-      <c r="T18">
+      <c r="T19">
         <v>7796</v>
       </c>
-      <c r="U18">
+      <c r="U19">
         <v>9680</v>
       </c>
-      <c r="V18">
+      <c r="V19">
         <v>4824</v>
       </c>
-      <c r="W18">
+      <c r="W19">
         <v>4381</v>
       </c>
-      <c r="X18">
+      <c r="X19">
         <v>2625</v>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <v>11902</v>
       </c>
-      <c r="Z18">
+      <c r="Z19">
         <v>14527</v>
       </c>
-      <c r="AA18">
+      <c r="AA19">
         <v>6611</v>
       </c>
-      <c r="AB18">
+      <c r="AB19">
         <v>5129</v>
       </c>
-      <c r="AC18">
+      <c r="AC19">
         <v>3624</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
-        <f>B16-B18</f>
+      <c r="B21">
+        <f t="shared" ref="B21:AC21" si="5">B16-B19</f>
         <v>17891</v>
       </c>
-      <c r="C20">
-        <f t="shared" ref="C20:AC20" si="16">C16-C18</f>
+      <c r="C21">
+        <f t="shared" si="5"/>
         <v>11029</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="16"/>
+      <c r="D21">
+        <f t="shared" si="5"/>
         <v>8717</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="16"/>
+      <c r="E21">
+        <f t="shared" si="5"/>
         <v>39634</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="16"/>
+      <c r="F21">
+        <f t="shared" si="5"/>
         <v>48351</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="16"/>
+      <c r="G21">
+        <f t="shared" si="5"/>
         <v>20065</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="16"/>
+      <c r="H21">
+        <f t="shared" si="5"/>
         <v>13822</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="16"/>
+      <c r="I21">
+        <f t="shared" si="5"/>
         <v>11519</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="16"/>
+      <c r="J21">
+        <f t="shared" si="5"/>
         <v>48012</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="16"/>
+      <c r="K21">
+        <f t="shared" si="5"/>
         <v>59531</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="16"/>
+      <c r="L21">
+        <f t="shared" si="5"/>
         <v>19965</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="16"/>
+      <c r="M21">
+        <f t="shared" si="5"/>
         <v>11561</v>
       </c>
-      <c r="N20">
-        <f t="shared" si="16"/>
+      <c r="N21">
+        <f t="shared" si="5"/>
         <v>10044</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="16"/>
+      <c r="O21">
+        <f t="shared" si="5"/>
         <v>45212</v>
       </c>
-      <c r="P20">
-        <f t="shared" si="16"/>
+      <c r="P21">
+        <f t="shared" si="5"/>
         <v>55256</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="16"/>
+      <c r="Q21">
+        <f t="shared" si="5"/>
         <v>22236</v>
       </c>
-      <c r="R20">
-        <f t="shared" si="16"/>
+      <c r="R21">
+        <f t="shared" si="5"/>
         <v>11249</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="16"/>
+      <c r="S21">
+        <f t="shared" si="5"/>
         <v>11253</v>
       </c>
-      <c r="T20">
-        <f t="shared" si="16"/>
+      <c r="T21">
+        <f t="shared" si="5"/>
         <v>46158</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="16"/>
+      <c r="U21">
+        <f t="shared" si="5"/>
         <v>57411</v>
       </c>
-      <c r="V20">
-        <f t="shared" si="16"/>
+      <c r="V21">
+        <f t="shared" si="5"/>
         <v>28755</v>
       </c>
-      <c r="W20">
-        <f>W16-W18</f>
+      <c r="W21">
+        <f t="shared" si="5"/>
         <v>23630</v>
       </c>
-      <c r="X20">
-        <f t="shared" si="16"/>
+      <c r="X21">
+        <f t="shared" si="5"/>
         <v>21744</v>
       </c>
-      <c r="Y20">
-        <f t="shared" si="16"/>
+      <c r="Y21">
+        <f t="shared" si="5"/>
         <v>72936</v>
       </c>
-      <c r="Z20">
-        <f t="shared" si="16"/>
+      <c r="Z21">
+        <f t="shared" si="5"/>
         <v>94680</v>
       </c>
-      <c r="AA20">
-        <f t="shared" si="16"/>
+      <c r="AA21">
+        <f t="shared" si="5"/>
         <v>34630</v>
       </c>
-      <c r="AB20">
-        <f t="shared" si="16"/>
+      <c r="AB21">
+        <f t="shared" si="5"/>
         <v>25010</v>
       </c>
-      <c r="AC20">
-        <f t="shared" si="16"/>
+      <c r="AC21">
+        <f t="shared" si="5"/>
         <v>19442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24">
-        <v>3.38</v>
-      </c>
-      <c r="C24">
-        <v>2.11</v>
-      </c>
-      <c r="D24">
-        <v>1.68</v>
-      </c>
-      <c r="E24">
-        <v>7.59</v>
-      </c>
-      <c r="F24">
-        <v>9.27</v>
-      </c>
-      <c r="G24">
-        <v>3.92</v>
-      </c>
-      <c r="H24">
-        <v>2.75</v>
-      </c>
-      <c r="I24">
-        <v>2.36</v>
-      </c>
-      <c r="J24">
-        <v>9.65</v>
-      </c>
-      <c r="K24">
-        <v>12.01</v>
-      </c>
-      <c r="L24">
-        <v>4.22</v>
-      </c>
-      <c r="M24">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="N24">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O24">
-        <v>9.77</v>
-      </c>
-      <c r="P24">
-        <v>11.97</v>
-      </c>
-      <c r="Q24">
-        <v>5.04</v>
-      </c>
-      <c r="R24">
-        <v>2.58</v>
-      </c>
-      <c r="S24">
-        <v>2.61</v>
-      </c>
-      <c r="T24">
-        <v>0.70000000000000018</v>
-      </c>
-      <c r="U24">
-        <v>3.31</v>
-      </c>
-      <c r="V24">
-        <v>1.7</v>
-      </c>
-      <c r="W24">
-        <v>1.41</v>
-      </c>
-      <c r="X24">
-        <v>1.31</v>
-      </c>
-      <c r="Y24">
-        <v>4.3599999999999994</v>
-      </c>
-      <c r="Z24">
-        <v>5.67</v>
-      </c>
-      <c r="AA24">
-        <v>2.11</v>
-      </c>
-      <c r="AB24">
-        <v>1.54</v>
-      </c>
-      <c r="AC24">
-        <v>1.2</v>
+        <v>44</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="C25">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="D25">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="E25">
-        <v>7.5400000000000009</v>
+        <v>7.59</v>
       </c>
       <c r="F25">
-        <v>9.2100000000000009</v>
+        <v>9.27</v>
       </c>
       <c r="G25">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
       <c r="H25">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="I25">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J25">
-        <v>9.57</v>
+        <v>9.65</v>
       </c>
       <c r="K25">
-        <v>11.91</v>
+        <v>12.01</v>
       </c>
       <c r="L25">
-        <v>4.18</v>
+        <v>4.22</v>
       </c>
       <c r="M25">
-        <v>2.46</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="N25">
-        <v>2.1800000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O25">
-        <v>9.7100000000000009</v>
+        <v>9.77</v>
       </c>
       <c r="P25">
-        <v>11.89</v>
+        <v>11.97</v>
       </c>
       <c r="Q25">
-        <v>4.99</v>
+        <v>5.04</v>
       </c>
       <c r="R25">
-        <v>2.5499999999999998</v>
+        <v>2.58</v>
       </c>
       <c r="S25">
-        <v>2.58</v>
+        <v>2.61</v>
       </c>
       <c r="T25">
-        <v>0.69999999999999973</v>
+        <v>0.70000000000000018</v>
       </c>
       <c r="U25">
-        <v>3.28</v>
+        <v>3.31</v>
       </c>
       <c r="V25">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="W25">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X25">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Y25">
-        <v>4.3099999999999996</v>
+        <v>4.3599999999999994</v>
       </c>
       <c r="Z25">
-        <v>5.61</v>
+        <v>5.67</v>
       </c>
       <c r="AA25">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="AB25">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AC25">
         <v>1.2</v>
@@ -1953,853 +1899,675 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>3.36</v>
+      </c>
+      <c r="C26">
+        <v>2.1</v>
+      </c>
+      <c r="D26">
+        <v>1.67</v>
+      </c>
+      <c r="E26">
+        <v>7.5400000000000009</v>
+      </c>
+      <c r="F26">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="G26">
+        <v>3.89</v>
+      </c>
+      <c r="H26">
+        <v>2.73</v>
+      </c>
+      <c r="I26">
+        <v>2.34</v>
+      </c>
+      <c r="J26">
+        <v>9.57</v>
+      </c>
+      <c r="K26">
+        <v>11.91</v>
+      </c>
+      <c r="L26">
+        <v>4.18</v>
+      </c>
+      <c r="M26">
+        <v>2.46</v>
+      </c>
+      <c r="N26">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="O26">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="P26">
+        <v>11.89</v>
+      </c>
+      <c r="Q26">
+        <v>4.99</v>
+      </c>
+      <c r="R26">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="S26">
+        <v>2.58</v>
+      </c>
+      <c r="T26">
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="U26">
+        <v>3.28</v>
+      </c>
+      <c r="V26">
+        <v>1.68</v>
+      </c>
+      <c r="W26">
+        <v>1.4</v>
+      </c>
+      <c r="X26">
+        <v>1.3</v>
+      </c>
+      <c r="Y26">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="Z26">
+        <v>5.61</v>
+      </c>
+      <c r="AA26">
+        <v>2.1</v>
+      </c>
+      <c r="AB26">
+        <v>1.52</v>
+      </c>
+      <c r="AC26">
+        <v>1.2</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27">
-        <v>5298661</v>
-      </c>
-      <c r="C27">
-        <v>5225791</v>
-      </c>
-      <c r="D27">
-        <v>5195088</v>
-      </c>
-      <c r="E27">
-        <v>22154</v>
-      </c>
-      <c r="F27">
-        <v>5217242</v>
-      </c>
-      <c r="G27">
-        <v>5112877</v>
-      </c>
-      <c r="H27">
-        <v>5024877</v>
-      </c>
-      <c r="I27">
-        <v>4882167</v>
-      </c>
-      <c r="J27">
-        <v>73210</v>
-      </c>
-      <c r="K27">
-        <v>4955377</v>
-      </c>
-      <c r="L27">
-        <v>4735820</v>
-      </c>
-      <c r="M27">
-        <v>4674071</v>
-      </c>
-      <c r="N27">
-        <v>4570633</v>
-      </c>
-      <c r="O27">
-        <v>47201</v>
-      </c>
-      <c r="P27">
-        <v>4617834</v>
-      </c>
-      <c r="Q27">
-        <v>4415040</v>
-      </c>
-      <c r="R27">
-        <v>4360101</v>
-      </c>
-      <c r="S27">
-        <v>4312573</v>
-      </c>
-      <c r="T27">
-        <v>13039546</v>
-      </c>
-      <c r="U27">
-        <v>17352119</v>
-      </c>
-      <c r="V27">
-        <v>16935119</v>
-      </c>
-      <c r="W27">
-        <v>16753476</v>
-      </c>
-      <c r="X27">
-        <v>16629371</v>
-      </c>
-      <c r="Y27">
-        <v>71901</v>
-      </c>
-      <c r="Z27">
-        <v>16701272</v>
-      </c>
-      <c r="AA27">
-        <v>16391724</v>
-      </c>
-      <c r="AB27">
-        <v>16278802</v>
-      </c>
-      <c r="AC27">
-        <v>16162945</v>
+        <v>47</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28">
-        <v>5327995</v>
+        <v>5298661</v>
       </c>
       <c r="C28">
-        <v>5261688</v>
+        <v>5225791</v>
       </c>
       <c r="D28">
-        <v>5233499</v>
+        <v>5195088</v>
       </c>
       <c r="E28">
-        <v>18193</v>
+        <v>5217242</v>
       </c>
       <c r="F28">
-        <v>5251692</v>
+        <v>5217242</v>
       </c>
       <c r="G28">
-        <v>5157787</v>
+        <v>5112877</v>
       </c>
       <c r="H28">
-        <v>5068493</v>
+        <v>5024877</v>
       </c>
       <c r="I28">
-        <v>4926609</v>
+        <v>4882167</v>
       </c>
       <c r="J28">
-        <v>73500</v>
+        <v>4955377</v>
       </c>
       <c r="K28">
-        <v>5000109</v>
+        <v>4955377</v>
       </c>
       <c r="L28">
-        <v>4773252</v>
+        <v>4735820</v>
       </c>
       <c r="M28">
-        <v>4700646</v>
+        <v>4674071</v>
       </c>
       <c r="N28">
-        <v>4601380</v>
+        <v>4570633</v>
       </c>
       <c r="O28">
-        <v>47533</v>
+        <v>4617834</v>
       </c>
       <c r="P28">
-        <v>4648913</v>
+        <v>4617834</v>
       </c>
       <c r="Q28">
-        <v>4454604</v>
+        <v>4415040</v>
       </c>
       <c r="R28">
-        <v>4404691</v>
+        <v>4360101</v>
       </c>
       <c r="S28">
-        <v>4354788</v>
+        <v>4312573</v>
       </c>
       <c r="T28">
-        <v>13173426</v>
+        <v>17352119</v>
       </c>
       <c r="U28">
-        <v>17528214</v>
+        <v>17352119</v>
       </c>
       <c r="V28">
-        <v>17113688</v>
+        <v>16935119</v>
       </c>
       <c r="W28">
-        <v>16929157</v>
+        <v>16753476</v>
       </c>
       <c r="X28">
-        <v>16781735</v>
+        <v>16629371</v>
       </c>
       <c r="Y28">
-        <v>83184</v>
+        <v>16701272</v>
       </c>
       <c r="Z28">
-        <v>16864919</v>
+        <v>16701272</v>
       </c>
       <c r="AA28">
-        <v>16519291</v>
+        <v>16391724</v>
       </c>
       <c r="AB28">
-        <v>16403316</v>
+        <v>16278802</v>
       </c>
       <c r="AC28">
-        <v>16262203</v>
+        <v>16162945</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>5327995</v>
+      </c>
+      <c r="C29">
+        <v>5261688</v>
+      </c>
+      <c r="D29">
+        <v>5233499</v>
+      </c>
+      <c r="E29">
+        <v>5251692</v>
+      </c>
+      <c r="F29">
+        <v>5251692</v>
+      </c>
+      <c r="G29">
+        <v>5157787</v>
+      </c>
+      <c r="H29">
+        <v>5068493</v>
+      </c>
+      <c r="I29">
+        <v>4926609</v>
+      </c>
+      <c r="J29">
+        <v>5000109</v>
+      </c>
+      <c r="K29">
+        <v>5000109</v>
+      </c>
+      <c r="L29">
+        <v>4773252</v>
+      </c>
+      <c r="M29">
+        <v>4700646</v>
+      </c>
+      <c r="N29">
+        <v>4601380</v>
+      </c>
+      <c r="O29">
+        <v>4648913</v>
+      </c>
+      <c r="P29">
+        <v>4648913</v>
+      </c>
+      <c r="Q29">
+        <v>4454604</v>
+      </c>
+      <c r="R29">
+        <v>4404691</v>
+      </c>
+      <c r="S29">
+        <v>4354788</v>
+      </c>
+      <c r="T29">
+        <v>17528214</v>
+      </c>
+      <c r="U29">
+        <v>17528214</v>
+      </c>
+      <c r="V29">
+        <v>17113688</v>
+      </c>
+      <c r="W29">
+        <v>16929157</v>
+      </c>
+      <c r="X29">
+        <v>16781735</v>
+      </c>
+      <c r="Y29">
+        <v>16864919</v>
+      </c>
+      <c r="Z29">
+        <v>16864919</v>
+      </c>
+      <c r="AA29">
+        <v>16519291</v>
+      </c>
+      <c r="AB29">
+        <v>16403316</v>
+      </c>
+      <c r="AC29">
+        <v>16262203</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30">
-        <v>73435</v>
-      </c>
-      <c r="M30">
-        <v>46565</v>
-      </c>
-      <c r="N30">
-        <v>42354</v>
-      </c>
-      <c r="O30">
-        <v>171529</v>
-      </c>
-      <c r="P30">
-        <v>213883</v>
-      </c>
-      <c r="Q30">
-        <v>79104</v>
-      </c>
-      <c r="R30">
-        <v>44965</v>
-      </c>
-      <c r="S30">
-        <v>46529</v>
-      </c>
-      <c r="T30">
-        <v>174218</v>
-      </c>
-      <c r="U30">
-        <v>220747</v>
-      </c>
-      <c r="V30">
-        <v>95678</v>
-      </c>
-      <c r="W30">
-        <v>72683</v>
-      </c>
-      <c r="X30">
-        <v>63948</v>
-      </c>
-      <c r="Y30">
-        <v>233444</v>
-      </c>
-      <c r="Z30">
-        <v>297392</v>
-      </c>
-      <c r="AA30">
-        <v>104429</v>
-      </c>
-      <c r="AB30">
-        <v>77457</v>
-      </c>
-      <c r="AC30">
-        <v>63355</v>
+        <v>48</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C31">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D31">
-        <v>0.63</v>
-      </c>
-      <c r="E31">
-        <v>1.77</v>
-      </c>
-      <c r="F31">
-        <v>2.4</v>
-      </c>
-      <c r="G31">
-        <v>0.63</v>
-      </c>
-      <c r="H31">
-        <v>0.63</v>
-      </c>
-      <c r="I31">
-        <v>0.73</v>
+        <v>30</v>
+      </c>
+      <c r="L31">
+        <v>73435</v>
+      </c>
+      <c r="M31">
+        <v>46565</v>
+      </c>
+      <c r="N31">
+        <v>42354</v>
+      </c>
+      <c r="O31">
+        <v>171529</v>
+      </c>
+      <c r="P31">
+        <v>213883</v>
+      </c>
+      <c r="Q31">
+        <v>79104</v>
+      </c>
+      <c r="R31">
+        <v>44965</v>
+      </c>
+      <c r="S31">
+        <v>46529</v>
+      </c>
+      <c r="T31">
+        <v>174218</v>
+      </c>
+      <c r="U31">
+        <v>220747</v>
+      </c>
+      <c r="V31">
+        <v>95678</v>
+      </c>
+      <c r="W31">
+        <v>72683</v>
+      </c>
+      <c r="X31">
+        <v>63948</v>
+      </c>
+      <c r="Y31">
+        <v>233444</v>
+      </c>
+      <c r="Z31">
+        <v>297392</v>
+      </c>
+      <c r="AA31">
+        <v>104429</v>
+      </c>
+      <c r="AB31">
+        <v>77457</v>
+      </c>
+      <c r="AC31">
+        <v>63355</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32">
-        <v>48238</v>
-      </c>
-      <c r="M32">
-        <v>32047</v>
-      </c>
-      <c r="N32">
-        <v>29473</v>
-      </c>
-      <c r="O32">
-        <v>115523</v>
-      </c>
-      <c r="P32">
-        <v>144996</v>
-      </c>
-      <c r="Q32">
-        <v>52075</v>
-      </c>
-      <c r="R32">
-        <v>31321</v>
-      </c>
-      <c r="S32">
-        <v>32693</v>
-      </c>
-      <c r="T32">
-        <v>118593</v>
-      </c>
-      <c r="U32">
-        <v>151286</v>
-      </c>
-      <c r="V32">
-        <v>62130</v>
-      </c>
-      <c r="W32">
-        <v>46447</v>
-      </c>
-      <c r="X32">
-        <v>40899</v>
-      </c>
-      <c r="Y32">
-        <v>151367</v>
-      </c>
-      <c r="Z32">
-        <v>192266</v>
-      </c>
-      <c r="AA32">
-        <v>64309</v>
-      </c>
-      <c r="AB32">
-        <v>49290</v>
-      </c>
-      <c r="AC32">
-        <v>41485</v>
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C32">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D32">
+        <v>0.63</v>
+      </c>
+      <c r="E32">
+        <v>1.77</v>
+      </c>
+      <c r="F32">
+        <v>2.4</v>
+      </c>
+      <c r="G32">
+        <v>0.63</v>
+      </c>
+      <c r="H32">
+        <v>0.63</v>
+      </c>
+      <c r="I32">
+        <v>0.73</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="L33">
+        <v>48238</v>
+      </c>
+      <c r="M33">
+        <v>32047</v>
+      </c>
+      <c r="N33">
+        <v>29473</v>
+      </c>
+      <c r="O33">
+        <v>115523</v>
+      </c>
+      <c r="P33">
+        <v>144996</v>
+      </c>
+      <c r="Q33">
+        <v>52075</v>
+      </c>
+      <c r="R33">
+        <v>31321</v>
+      </c>
+      <c r="S33">
+        <v>32693</v>
+      </c>
+      <c r="T33">
+        <v>118593</v>
+      </c>
+      <c r="U33">
+        <v>151286</v>
+      </c>
+      <c r="V33">
+        <v>62130</v>
+      </c>
+      <c r="W33">
+        <v>46447</v>
+      </c>
+      <c r="X33">
+        <v>40899</v>
+      </c>
+      <c r="Y33">
+        <v>151367</v>
+      </c>
+      <c r="Z33">
+        <v>192266</v>
+      </c>
+      <c r="AA33">
+        <v>64309</v>
+      </c>
+      <c r="AB33">
+        <v>49290</v>
+      </c>
+      <c r="AC33">
+        <v>41485</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="L34">
-        <v>10875</v>
-      </c>
-      <c r="M34">
-        <v>11450</v>
-      </c>
-      <c r="N34">
-        <v>11455</v>
-      </c>
-      <c r="O34">
-        <v>34836</v>
-      </c>
-      <c r="P34">
-        <v>46291</v>
-      </c>
-      <c r="Q34">
-        <v>12715</v>
-      </c>
-      <c r="R34">
-        <v>13348</v>
-      </c>
-      <c r="S34">
-        <v>13156</v>
-      </c>
-      <c r="T34">
-        <v>40612</v>
-      </c>
-      <c r="U34">
-        <v>53768</v>
-      </c>
-      <c r="V34">
-        <v>15761</v>
-      </c>
-      <c r="W34">
-        <v>16901</v>
-      </c>
-      <c r="X34">
-        <v>17486</v>
-      </c>
-      <c r="Y34">
-        <v>50939</v>
-      </c>
-      <c r="Z34">
-        <v>68425</v>
-      </c>
-      <c r="AA34">
-        <v>19516</v>
-      </c>
-      <c r="AB34">
-        <v>19821</v>
-      </c>
-      <c r="AC34">
-        <v>19604</v>
+        <v>50</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35">
+        <v>10875</v>
+      </c>
+      <c r="M35">
+        <v>11450</v>
+      </c>
+      <c r="N35">
+        <v>11455</v>
+      </c>
+      <c r="O35">
+        <v>34836</v>
+      </c>
+      <c r="P35">
+        <v>46291</v>
+      </c>
+      <c r="Q35">
+        <v>12715</v>
+      </c>
+      <c r="R35">
+        <v>13348</v>
+      </c>
+      <c r="S35">
+        <v>13156</v>
+      </c>
+      <c r="T35">
+        <v>40612</v>
+      </c>
+      <c r="U35">
+        <v>53768</v>
+      </c>
+      <c r="V35">
+        <v>15761</v>
+      </c>
+      <c r="W35">
+        <v>16901</v>
+      </c>
+      <c r="X35">
+        <v>17486</v>
+      </c>
+      <c r="Y35">
+        <v>50939</v>
+      </c>
+      <c r="Z35">
+        <v>68425</v>
+      </c>
+      <c r="AA35">
+        <v>19516</v>
+      </c>
+      <c r="AB35">
+        <v>19821</v>
+      </c>
+      <c r="AC35">
+        <v>19604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>31</v>
       </c>
-      <c r="L35">
+      <c r="L36">
         <v>4041</v>
       </c>
-      <c r="M35">
+      <c r="M36">
         <v>4147</v>
       </c>
-      <c r="N35">
+      <c r="N36">
         <v>4109</v>
       </c>
-      <c r="O35">
+      <c r="O36">
         <v>12677</v>
       </c>
-      <c r="P35">
+      <c r="P36">
         <v>16786</v>
       </c>
-      <c r="Q35">
+      <c r="Q36">
         <v>4527</v>
       </c>
-      <c r="R35">
+      <c r="R36">
         <v>4622</v>
       </c>
-      <c r="S35">
+      <c r="S36">
         <v>4312</v>
       </c>
-      <c r="T35">
+      <c r="T36">
         <v>13961</v>
       </c>
-      <c r="U35">
+      <c r="U36">
         <v>18273</v>
       </c>
-      <c r="V35">
+      <c r="V36">
         <v>4981</v>
       </c>
-      <c r="W35">
+      <c r="W36">
         <v>5058</v>
       </c>
-      <c r="X35">
+      <c r="X36">
         <v>5280</v>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <v>15435</v>
       </c>
-      <c r="Z35">
+      <c r="Z36">
         <v>20715</v>
       </c>
-      <c r="AA35">
+      <c r="AA36">
         <v>5393</v>
       </c>
-      <c r="AB35">
+      <c r="AB36">
         <v>5429</v>
       </c>
-      <c r="AC35">
+      <c r="AC36">
         <v>5589</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37">
-        <v>2987</v>
-      </c>
-      <c r="C37">
-        <v>2332</v>
-      </c>
-      <c r="D37">
-        <v>2354</v>
-      </c>
-      <c r="E37">
-        <v>2484</v>
-      </c>
-      <c r="F37">
-        <v>10157</v>
-      </c>
-      <c r="G37">
-        <v>2745</v>
-      </c>
-      <c r="H37">
-        <v>2739</v>
-      </c>
-      <c r="I37">
-        <v>2665</v>
-      </c>
-      <c r="J37">
-        <v>2754</v>
-      </c>
-      <c r="K37">
-        <v>10903</v>
-      </c>
-      <c r="L37">
-        <v>3395</v>
-      </c>
-      <c r="M37">
-        <v>3040</v>
-      </c>
-      <c r="N37">
-        <v>2933</v>
-      </c>
-      <c r="O37">
-        <v>3179</v>
-      </c>
-      <c r="P37">
-        <v>12547</v>
-      </c>
-      <c r="Q37">
-        <v>2816</v>
-      </c>
-      <c r="R37">
-        <v>2786</v>
-      </c>
-      <c r="S37">
-        <v>2752</v>
-      </c>
-      <c r="T37">
-        <v>2702</v>
-      </c>
-      <c r="U37">
-        <v>11056</v>
-      </c>
-      <c r="V37">
-        <v>2666</v>
-      </c>
-      <c r="W37">
-        <v>2797</v>
-      </c>
-      <c r="X37">
-        <v>2832</v>
-      </c>
-      <c r="Y37">
-        <v>2989</v>
-      </c>
-      <c r="Z37">
-        <v>11284</v>
-      </c>
-      <c r="AA37">
-        <v>2697</v>
-      </c>
-      <c r="AB37">
-        <v>2737</v>
-      </c>
-      <c r="AC37">
-        <v>2805</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38">
-        <v>3510</v>
-      </c>
-      <c r="C38">
-        <v>3368</v>
-      </c>
-      <c r="D38">
-        <v>2874</v>
-      </c>
-      <c r="E38">
-        <v>1839</v>
-      </c>
-      <c r="F38">
-        <v>11591</v>
-      </c>
-      <c r="G38">
-        <v>3551</v>
-      </c>
-      <c r="H38">
-        <v>2789</v>
-      </c>
-      <c r="I38">
-        <v>2479</v>
-      </c>
-      <c r="J38">
-        <v>1598</v>
-      </c>
-      <c r="K38">
-        <v>10417</v>
-      </c>
-      <c r="L38">
-        <v>4916</v>
-      </c>
-      <c r="M38">
-        <v>4581</v>
-      </c>
-      <c r="N38">
-        <v>2298</v>
-      </c>
-      <c r="O38">
-        <v>3468</v>
-      </c>
-      <c r="P38">
-        <v>15263</v>
-      </c>
-      <c r="Q38">
-        <v>4393</v>
-      </c>
-      <c r="R38">
-        <v>3112</v>
-      </c>
-      <c r="S38">
-        <v>905</v>
-      </c>
-      <c r="T38">
-        <v>1091</v>
-      </c>
-      <c r="U38">
-        <v>9501</v>
-      </c>
-      <c r="V38">
-        <v>1787</v>
-      </c>
-      <c r="W38">
-        <v>8489</v>
-      </c>
-      <c r="X38">
-        <v>8260</v>
-      </c>
-      <c r="Y38">
-        <v>6849</v>
-      </c>
-      <c r="Z38">
-        <v>25385</v>
-      </c>
-      <c r="AA38">
-        <v>5235</v>
-      </c>
-      <c r="AB38">
-        <v>4066</v>
-      </c>
-      <c r="AC38">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39">
-        <v>497</v>
-      </c>
-      <c r="C39">
-        <v>510</v>
-      </c>
-      <c r="D39">
-        <v>449</v>
-      </c>
-      <c r="E39">
-        <v>636</v>
-      </c>
-      <c r="F39">
-        <v>2092</v>
-      </c>
-      <c r="G39">
-        <v>623</v>
-      </c>
-      <c r="H39">
-        <v>733</v>
-      </c>
-      <c r="I39">
-        <v>764</v>
-      </c>
-      <c r="J39">
-        <v>902</v>
-      </c>
-      <c r="K39">
-        <v>3022</v>
-      </c>
-      <c r="L39">
-        <v>836</v>
-      </c>
-      <c r="M39">
-        <v>926</v>
-      </c>
-      <c r="N39">
-        <v>801</v>
-      </c>
-      <c r="O39">
-        <v>860</v>
-      </c>
-      <c r="P39">
-        <v>3423</v>
-      </c>
-      <c r="Q39">
-        <v>771</v>
-      </c>
-      <c r="R39">
-        <v>918</v>
-      </c>
-      <c r="S39">
-        <v>586</v>
-      </c>
-      <c r="T39">
-        <v>727</v>
-      </c>
-      <c r="U39">
-        <v>3002</v>
-      </c>
-      <c r="V39">
-        <v>619</v>
-      </c>
-      <c r="W39">
-        <v>708</v>
-      </c>
-      <c r="X39">
-        <v>543</v>
-      </c>
-      <c r="Y39">
-        <v>817</v>
-      </c>
-      <c r="Z39">
-        <v>2687</v>
-      </c>
-      <c r="AA39">
-        <v>531</v>
-      </c>
-      <c r="AB39">
-        <v>875</v>
-      </c>
-      <c r="AC39">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>51</v>
       </c>
-      <c r="B41">
-        <f>B20+SUM(B37:B39)</f>
-        <v>24885</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ref="C41:AO41" si="17">C20+SUM(C37:C39)</f>
-        <v>17239</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="17"/>
-        <v>14394</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="17"/>
-        <v>44593</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="17"/>
-        <v>72191</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="17"/>
-        <v>26984</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="17"/>
-        <v>20083</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="17"/>
-        <v>17427</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="17"/>
-        <v>53266</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="17"/>
-        <v>83873</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="17"/>
-        <v>29112</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="17"/>
-        <v>20108</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="17"/>
-        <v>16076</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="17"/>
-        <v>52719</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="17"/>
-        <v>86489</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="17"/>
-        <v>30216</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="17"/>
-        <v>18065</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="17"/>
-        <v>15496</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="17"/>
-        <v>50678</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="17"/>
-        <v>80970</v>
-      </c>
-      <c r="V41">
-        <f t="shared" si="17"/>
-        <v>33827</v>
-      </c>
-      <c r="W41">
-        <f t="shared" si="17"/>
-        <v>35624</v>
-      </c>
-      <c r="X41">
-        <f t="shared" si="17"/>
-        <v>33379</v>
-      </c>
-      <c r="Y41">
-        <f t="shared" si="17"/>
-        <v>83591</v>
-      </c>
-      <c r="Z41">
-        <f t="shared" si="17"/>
-        <v>134036</v>
-      </c>
-      <c r="AA41">
-        <f t="shared" si="17"/>
-        <v>43093</v>
-      </c>
-      <c r="AB41">
-        <f t="shared" si="17"/>
-        <v>32688</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" si="17"/>
-        <v>25701</v>
+      <c r="B40" s="2">
+        <f>B21/B29*1000</f>
+        <v>3.3579235716249736</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" ref="C40:AC40" si="6">C21/C29*1000</f>
+        <v>2.0960953975226198</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6656160629819554</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="6"/>
+        <v>7.5469010749297558</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="6"/>
+        <v>9.2067470826545037</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="6"/>
+        <v>3.890234319486245</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="6"/>
+        <v>2.7270433243175045</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="6"/>
+        <v>2.3381193839413683</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="6"/>
+        <v>9.6021906722433439</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="6"/>
+        <v>11.905940450498179</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="6"/>
+        <v>4.1826830010232019</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="6"/>
+        <v>2.4594491906006111</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1828234138454117</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="6"/>
+        <v>9.7252841685787637</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="6"/>
+        <v>11.885789215672567</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="6"/>
+        <v>4.9916894969788563</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="6"/>
+        <v>2.5538681374016927</v>
+      </c>
+      <c r="S40" s="2">
+        <f t="shared" si="6"/>
+        <v>2.5840523120758117</v>
+      </c>
+      <c r="T40" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6333544307480503</v>
+      </c>
+      <c r="U40" s="2">
+        <f t="shared" si="6"/>
+        <v>3.2753479618630852</v>
+      </c>
+      <c r="V40" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6802339741147554</v>
+      </c>
+      <c r="W40" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3958166966021994</v>
+      </c>
+      <c r="X40" s="2">
+        <f t="shared" si="6"/>
+        <v>1.2956943963183782</v>
+      </c>
+      <c r="Y40" s="2">
+        <f t="shared" si="6"/>
+        <v>4.3247168871667876</v>
+      </c>
+      <c r="Z40" s="2">
+        <f t="shared" si="6"/>
+        <v>5.6140204408927188</v>
+      </c>
+      <c r="AA40" s="2">
+        <f t="shared" si="6"/>
+        <v>2.0963369432743817</v>
+      </c>
+      <c r="AB40" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5246917147727936</v>
+      </c>
+      <c r="AC40" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1955329791418789</v>
       </c>
     </row>
   </sheetData>
